--- a/Fase 2/Evidencias Proyecto/Sprints/Daily Meeting/Daily Meetings – Sprint 8 (6–10 de octubre 2025).xlsx
+++ b/Fase 2/Evidencias Proyecto/Sprints/Daily Meeting/Daily Meetings – Sprint 8 (6–10 de octubre 2025).xlsx
@@ -656,7 +656,7 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7">
+    <row r="7" ht="22.5" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
         <v>1</v>
@@ -680,7 +680,7 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8">
+    <row r="8" ht="22.5" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="6">
         <v>45936.0</v>
@@ -704,7 +704,7 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9">
+    <row r="9" ht="22.5" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="6">
         <v>45936.0</v>
@@ -728,7 +728,7 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10">
+    <row r="10" ht="22.5" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="6">
         <v>45936.0</v>
@@ -752,7 +752,7 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11">
+    <row r="11" ht="22.5" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="6">
         <v>45936.0</v>
@@ -776,7 +776,7 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12">
+    <row r="12" ht="22.5" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="6">
         <v>45937.0</v>
@@ -800,7 +800,7 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13">
+    <row r="13" ht="22.5" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="6">
         <v>45937.0</v>
@@ -824,7 +824,7 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14">
+    <row r="14" ht="22.5" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="6">
         <v>45937.0</v>
@@ -848,7 +848,7 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15">
+    <row r="15" ht="22.5" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="6">
         <v>45937.0</v>
@@ -872,7 +872,7 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16">
+    <row r="16" ht="22.5" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="6">
         <v>45938.0</v>
@@ -896,7 +896,7 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17">
+    <row r="17" ht="22.5" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="6">
         <v>45938.0</v>
@@ -920,7 +920,7 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18">
+    <row r="18" ht="22.5" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="6">
         <v>45938.0</v>
@@ -944,7 +944,7 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19">
+    <row r="19" ht="22.5" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="6">
         <v>45938.0</v>
@@ -968,7 +968,7 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20">
+    <row r="20" ht="22.5" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="6">
         <v>45939.0</v>
@@ -992,7 +992,7 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21">
+    <row r="21" ht="22.5" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="6">
         <v>45939.0</v>
@@ -1016,7 +1016,7 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22">
+    <row r="22" ht="22.5" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="6">
         <v>45939.0</v>
@@ -1040,7 +1040,7 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23">
+    <row r="23" ht="22.5" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="6">
         <v>45939.0</v>
@@ -1064,7 +1064,7 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24">
+    <row r="24" ht="22.5" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="6">
         <v>45940.0</v>
@@ -1088,7 +1088,7 @@
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
     </row>
-    <row r="25">
+    <row r="25" ht="22.5" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="6">
         <v>45940.0</v>
@@ -1112,7 +1112,7 @@
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
     </row>
-    <row r="26">
+    <row r="26" ht="22.5" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="6">
         <v>45940.0</v>
@@ -1136,7 +1136,7 @@
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
     </row>
-    <row r="27">
+    <row r="27" ht="22.5" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="6">
         <v>45940.0</v>
